--- a/ARYAN.xlsx
+++ b/ARYAN.xlsx
@@ -9,11 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!#REF!</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!#REF!</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!#REF!</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!#REF!</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$C$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$C$8:$C$14</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>construct the continous frequency distribution</t>
   </si>
@@ -51,6 +60,54 @@
   </si>
   <si>
     <t>Aim - to construct the continous frequency distribution</t>
+  </si>
+  <si>
+    <t>CLASS INTERVAL</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>Result- As shown in excle sheet</t>
+  </si>
+  <si>
+    <t>Aim- to draw the histogram</t>
+  </si>
+  <si>
+    <t>Problem-to draw the histogram for the given continous frequency distribution</t>
+  </si>
+  <si>
+    <t>select the data and go to the insert menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theory and formula-We insert the data into excle sheet and then </t>
+  </si>
+  <si>
+    <t>from insert menu we go to the chat button and in chart button we go to bar chart and perform accordingly which type of chart are required</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>21-29</t>
+  </si>
+  <si>
+    <t>30-38</t>
+  </si>
+  <si>
+    <t>39-47</t>
+  </si>
+  <si>
+    <t>48-56</t>
+  </si>
+  <si>
+    <t>57-65</t>
+  </si>
+  <si>
+    <t>66-74</t>
+  </si>
+  <si>
+    <t>75-83</t>
   </si>
 </sst>
 </file>
@@ -73,12 +130,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -114,10 +177,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,6 +197,1271 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11594256600277907"/>
+          <c:y val="1.799351248170146E-2"/>
+          <c:w val="0.88405743399722092"/>
+          <c:h val="0.81849858448283641"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21-29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEEF-4B1F-8906-911C547C73DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30-38</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FEEF-4B1F-8906-911C547C73DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>39-47</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FEEF-4B1F-8906-911C547C73DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>48-56</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FEEF-4B1F-8906-911C547C73DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>57-65</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FEEF-4B1F-8906-911C547C73DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>66-74</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FEEF-4B1F-8906-911C547C73DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75-83</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FEEF-4B1F-8906-911C547C73DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:shape val="box"/>
+        <c:axId val="1436667791"/>
+        <c:axId val="1436668623"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1436667791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1436668623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1436668623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FREQUENCY</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1436667791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,25 +1727,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
+  <dimension ref="B2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>62</v>
       </c>
@@ -445,7 +1783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>44</v>
       </c>
@@ -474,7 +1812,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>40</v>
       </c>
@@ -503,7 +1841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>40</v>
       </c>
@@ -532,7 +1870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>44</v>
       </c>
@@ -561,63 +1899,288 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F18">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
         <f>MAX(C6:K10)</f>
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F19">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
         <f>MIN(C6:K10)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F20">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
         <f>MAX(C6:K10)-MIN(C6:K10)</f>
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G21">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
         <f>SQRT(COUNT(C6:K10))</f>
         <v>6.7082039324993694</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G22">
-        <f>MAX(C6:K10)-MIN(C6:K10)/SQRT(COUNT(C6:K10))</f>
-        <v>75.869504831500294</v>
-      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
+        <f>(MAX(C6:K10)-MIN(C6:K10))/SQRT(COUNT(C6:K10))</f>
+        <v>8.6461295129991864</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2">
+        <v>29</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="array" ref="D29:D35">FREQUENCY(C6:K10,C29:C35)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>39</v>
+      </c>
+      <c r="C31" s="2">
+        <v>47</v>
+      </c>
+      <c r="D31" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>48</v>
+      </c>
+      <c r="C32" s="2">
+        <v>56</v>
+      </c>
+      <c r="D32" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>57</v>
+      </c>
+      <c r="C33" s="2">
+        <v>65</v>
+      </c>
+      <c r="D33" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2">
+        <v>83</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>